--- a/public/sheets/_u2uploads.xlsx
+++ b/public/sheets/_u2uploads.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oviaesud\OneDrive - World Health Organization\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2491507B-EBF5-4EFC-9211-2C81984D8604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7464B39-C132-4EDF-B90F-E040553FF310}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="51">
   <si>
     <t>Bank Name</t>
   </si>
@@ -119,20 +125,74 @@
     <t>Zenith Bank</t>
   </si>
   <si>
-    <t>0033033067</t>
-  </si>
-  <si>
-    <t>0027320995</t>
-  </si>
-  <si>
-    <t>1111111111</t>
+    <t>3143563245</t>
+  </si>
+  <si>
+    <t>3111623290</t>
+  </si>
+  <si>
+    <t>3129763579</t>
+  </si>
+  <si>
+    <t>0026535701</t>
+  </si>
+  <si>
+    <t>0039355336</t>
+  </si>
+  <si>
+    <t>3108847465</t>
+  </si>
+  <si>
+    <t>3110564666</t>
+  </si>
+  <si>
+    <t>0036560223</t>
+  </si>
+  <si>
+    <t>0158417010</t>
+  </si>
+  <si>
+    <t>0026519509</t>
+  </si>
+  <si>
+    <t>2022650971</t>
+  </si>
+  <si>
+    <t>2016429356</t>
+  </si>
+  <si>
+    <t>3071857555</t>
+  </si>
+  <si>
+    <t>3154858789</t>
+  </si>
+  <si>
+    <t>0036528669</t>
+  </si>
+  <si>
+    <t>3034727901</t>
+  </si>
+  <si>
+    <t>0134827150</t>
+  </si>
+  <si>
+    <t>0036574202</t>
+  </si>
+  <si>
+    <t>2116926278</t>
+  </si>
+  <si>
+    <t>2116926279</t>
+  </si>
+  <si>
+    <t>0036574255</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +212,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -210,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -220,12 +288,337 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -296,7 +689,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -348,7 +741,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -542,31 +935,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230459E2-98E6-40EF-8443-6A50FB3FC8A7}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="17" max="17" width="24" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,515 +973,923 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="Q29" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="Q30" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="Q31" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="Q32" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.75">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+    <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="Q33" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15.75">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+    <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="Q34" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15.75">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+    <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="Q35" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15.75">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+    <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="Q36" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15.75">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+    <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="Q37" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15.75">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+    <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="Q38" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15.75">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+    <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="Q39" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15.75">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+    <row r="40" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="Q40" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15.75">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+    <row r="41" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="Q41" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15.75">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+    <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="Q42" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15.75">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+    <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="Q43" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15.75">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+    <row r="44" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="Q44" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15.75">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+    <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="Q45" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15.75">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+    <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="Q46" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+    <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="Q47" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15.75">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+    <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="Q48" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15.75">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+    <row r="49" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="Q49" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15.75">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+    <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="Q50" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15.75">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+    <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="Q51" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15.75">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+    <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="Q52" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15.75">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+    <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="Q53" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15.75">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="Q54" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="1:2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B104">
-    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
+  <conditionalFormatting sqref="B1 B21:B22 B86:B104">
+    <cfRule type="duplicateValues" dxfId="47" priority="47" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="48" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="duplicateValues" dxfId="45" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="duplicateValues" dxfId="43" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="duplicateValues" dxfId="42" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B43">
+    <cfRule type="duplicateValues" dxfId="35" priority="35" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="36" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B41">
+    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B41">
+    <cfRule type="duplicateValues" dxfId="31" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B41">
+    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B41">
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="duplicateValues" dxfId="23" priority="23" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="24" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B62">
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B62">
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B62">
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B62">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84:B85">
+    <cfRule type="duplicateValues" dxfId="11" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B83">
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B83">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B83">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B83">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{CE80B466-06FA-46EE-B416-585341C397DD}">
       <formula1>$Q$29:$Q$54</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/sheets/_u2uploads.xlsx
+++ b/public/sheets/_u2uploads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oviaesud\OneDrive - World Health Organization\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\illoi\OneDrive - World Health Organization\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2491507B-EBF5-4EFC-9211-2C81984D8604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{AC47B7F6-AE53-458E-88D7-48531C340768}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{72D99CD4-4E8C-4076-ABE5-9A27E8F64FAD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7464B39-C132-4EDF-B90F-E040553FF310}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B7464B39-C132-4EDF-B90F-E040553FF310}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>Bank Name</t>
   </si>
@@ -125,74 +123,89 @@
     <t>Zenith Bank</t>
   </si>
   <si>
-    <t>3143563245</t>
-  </si>
-  <si>
-    <t>3111623290</t>
-  </si>
-  <si>
-    <t>3129763579</t>
-  </si>
-  <si>
-    <t>0026535701</t>
-  </si>
-  <si>
-    <t>0039355336</t>
-  </si>
-  <si>
-    <t>3108847465</t>
-  </si>
-  <si>
-    <t>3110564666</t>
-  </si>
-  <si>
-    <t>0036560223</t>
-  </si>
-  <si>
-    <t>0158417010</t>
-  </si>
-  <si>
-    <t>0026519509</t>
-  </si>
-  <si>
-    <t>2022650971</t>
-  </si>
-  <si>
-    <t>2016429356</t>
-  </si>
-  <si>
-    <t>3071857555</t>
-  </si>
-  <si>
-    <t>3154858789</t>
-  </si>
-  <si>
-    <t>0036528669</t>
-  </si>
-  <si>
-    <t>3034727901</t>
-  </si>
-  <si>
-    <t>0134827150</t>
-  </si>
-  <si>
-    <t>0036574202</t>
-  </si>
-  <si>
-    <t>2116926278</t>
-  </si>
-  <si>
-    <t>2116926279</t>
-  </si>
-  <si>
-    <t>0036574255</t>
+    <t>3075685310</t>
+  </si>
+  <si>
+    <t>2016154212</t>
+  </si>
+  <si>
+    <t>3052911953</t>
+  </si>
+  <si>
+    <t>6512015012</t>
+  </si>
+  <si>
+    <t>2012020944</t>
+  </si>
+  <si>
+    <t>3056255547</t>
+  </si>
+  <si>
+    <t>3052529129</t>
+  </si>
+  <si>
+    <t>2006639833</t>
+  </si>
+  <si>
+    <t>3090466990</t>
+  </si>
+  <si>
+    <t>3065259349</t>
+  </si>
+  <si>
+    <t>0011069504</t>
+  </si>
+  <si>
+    <t>0009742147</t>
+  </si>
+  <si>
+    <t>1741061045</t>
+  </si>
+  <si>
+    <t>2035567018</t>
+  </si>
+  <si>
+    <t>2762573018</t>
+  </si>
+  <si>
+    <t>5330847595</t>
+  </si>
+  <si>
+    <t>4020651285</t>
+  </si>
+  <si>
+    <t>0002956067</t>
+  </si>
+  <si>
+    <t>0014294188</t>
+  </si>
+  <si>
+    <t>0027226813</t>
+  </si>
+  <si>
+    <t>2058734397</t>
+  </si>
+  <si>
+    <t>2002821113</t>
+  </si>
+  <si>
+    <t>0025758860</t>
+  </si>
+  <si>
+    <t>0022129385</t>
+  </si>
+  <si>
+    <t>0019610038</t>
+  </si>
+  <si>
+    <t>0008796750</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,14 +228,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +257,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -278,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -288,334 +319,238 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -945,14 +880,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230459E2-98E6-40EF-8443-6A50FB3FC8A7}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
@@ -977,48 +912,48 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>30</v>
+      <c r="B2" s="5">
+        <v>2020212397</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>31</v>
+      <c r="B3" s="5">
+        <v>3041517629</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
+      <c r="B4" s="5">
+        <v>2016131303</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2016917790</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>35</v>
+      <c r="B7" s="5">
+        <v>3139831756</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1026,31 +961,31 @@
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,143 +993,143 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>41</v>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>42</v>
+      <c r="B14" s="5">
+        <v>2010535363</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>43</v>
+      <c r="B15" s="5">
+        <v>3069380496</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3081080529</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>45</v>
+      <c r="B17" s="6">
+        <v>3031849389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3028630275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2017103970</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3018126883</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>30</v>
+      <c r="B23" s="10">
+        <v>2018313877</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>31</v>
+      <c r="B24" s="11">
+        <v>3086189018</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>32</v>
+      <c r="B25" s="7">
+        <v>2011966322</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="B26" s="10">
+        <v>3071671025</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2018084898</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
+      <c r="B28" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>4</v>
@@ -1202,10 +1137,10 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q30" s="4" t="s">
         <v>5</v>
@@ -1213,10 +1148,10 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="Q31" s="4" t="s">
         <v>6</v>
@@ -1224,10 +1159,10 @@
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>7</v>
@@ -1235,10 +1170,10 @@
     </row>
     <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>8</v>
@@ -1246,10 +1181,10 @@
     </row>
     <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q34" s="4" t="s">
         <v>9</v>
@@ -1257,10 +1192,10 @@
     </row>
     <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="B35" s="7">
+        <v>6232506788</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>10</v>
@@ -1268,10 +1203,10 @@
     </row>
     <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="Q36" s="4" t="s">
         <v>11</v>
@@ -1279,10 +1214,10 @@
     </row>
     <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1767055112</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>12</v>
@@ -1290,10 +1225,10 @@
     </row>
     <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q38" s="4" t="s">
         <v>13</v>
@@ -1301,10 +1236,10 @@
     </row>
     <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>14</v>
@@ -1312,10 +1247,10 @@
     </row>
     <row r="40" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>15</v>
@@ -1323,10 +1258,10 @@
     </row>
     <row r="41" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2122346523</v>
       </c>
       <c r="Q41" s="4" t="s">
         <v>16</v>
@@ -1334,10 +1269,10 @@
     </row>
     <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="Q42" s="4" t="s">
         <v>17</v>
@@ -1345,10 +1280,10 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>18</v>
@@ -1356,10 +1291,10 @@
     </row>
     <row r="44" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>19</v>
@@ -1367,10 +1302,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>20</v>
@@ -1378,10 +1313,10 @@
     </row>
     <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>21</v>
@@ -1389,339 +1324,187 @@
     </row>
     <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="Q47" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
       <c r="Q48" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
       <c r="Q49" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
       <c r="Q50" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
       <c r="Q51" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
       <c r="Q52" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
       <c r="Q53" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
       <c r="Q54" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
@@ -1800,93 +1583,49 @@
       <c r="B104" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B21:B22 B86:B104">
-    <cfRule type="duplicateValues" dxfId="47" priority="47" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="48" stopIfTrue="1"/>
+  <conditionalFormatting sqref="B1 B48:B104">
+    <cfRule type="duplicateValues" dxfId="21" priority="21" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B20">
-    <cfRule type="duplicateValues" dxfId="45" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="39"/>
+  <conditionalFormatting sqref="B2:B28">
+    <cfRule type="duplicateValues" dxfId="19" priority="19" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B20">
-    <cfRule type="duplicateValues" dxfId="43" priority="40"/>
+  <conditionalFormatting sqref="B29:B30">
+    <cfRule type="duplicateValues" dxfId="17" priority="17" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B20">
-    <cfRule type="duplicateValues" dxfId="42" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="46"/>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="duplicateValues" dxfId="15" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B20">
-    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
+  <conditionalFormatting sqref="B32:B33">
+    <cfRule type="duplicateValues" dxfId="13" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B43">
-    <cfRule type="duplicateValues" dxfId="35" priority="35" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="36" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B41">
-    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B41">
-    <cfRule type="duplicateValues" dxfId="31" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B41">
-    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B41">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="23" priority="23" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="24" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B62">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B62">
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B62">
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B62">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84:B85">
+  <conditionalFormatting sqref="B34:B36">
     <cfRule type="duplicateValues" dxfId="11" priority="11" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="10" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B83">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="duplicateValues" dxfId="9" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B83">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  <conditionalFormatting sqref="B38:B40">
+    <cfRule type="duplicateValues" dxfId="7" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B83">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  <conditionalFormatting sqref="B41:B43">
+    <cfRule type="duplicateValues" dxfId="5" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B83">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:B47">
+    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{CE80B466-06FA-46EE-B416-585341C397DD}">
@@ -1896,4 +1635,286 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D773E3B195DDEC4DA3286754E5D2D861" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="462fb37b656c7d23a83bb39b6e0fd21a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f2f6d5af-f638-4f62-aa1e-f841ead3cdd3" xmlns:ns4="b4570ebe-0c37-4beb-883b-16e07b099dac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c3a08445f5060295487bd193f6e796e2" ns3:_="" ns4:_="">
+    <xsd:import namespace="f2f6d5af-f638-4f62-aa1e-f841ead3cdd3"/>
+    <xsd:import namespace="b4570ebe-0c37-4beb-883b-16e07b099dac"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f2f6d5af-f638-4f62-aa1e-f841ead3cdd3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="14" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b4570ebe-0c37-4beb-883b-16e07b099dac" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="19" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775144AE-36D8-4306-9722-F7C6CC09C6CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b4570ebe-0c37-4beb-883b-16e07b099dac"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f2f6d5af-f638-4f62-aa1e-f841ead3cdd3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2114A2D9-2971-4343-88B4-724F2BBBD2E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C25403-D288-441F-871E-644D9E2A1600}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2f6d5af-f638-4f62-aa1e-f841ead3cdd3"/>
+    <ds:schemaRef ds:uri="b4570ebe-0c37-4beb-883b-16e07b099dac"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>